--- a/products_database.xlsx
+++ b/products_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Machine/Devices</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Lamp</t>
+  </si>
+  <si>
+    <t>Fridge</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,6 +445,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products_database.xlsx
+++ b/products_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Machine/Devices</t>
   </si>
@@ -49,6 +49,93 @@
   </si>
   <si>
     <t>Fridge</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>skanner</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Smart phone</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>Electric lamp</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Projector</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Air Coler</t>
+  </si>
+  <si>
+    <t>Vedio Recorder</t>
+  </si>
+  <si>
+    <t>Drayer Machine</t>
+  </si>
+  <si>
+    <t>Electric Watch</t>
+  </si>
+  <si>
+    <t>Photo Printer</t>
+  </si>
+  <si>
+    <t>Modems</t>
+  </si>
+  <si>
+    <t>Microware</t>
+  </si>
+  <si>
+    <t>Iron Machine</t>
+  </si>
+  <si>
+    <t>Coffee Machine</t>
+  </si>
+  <si>
+    <t>Jucier Machine</t>
+  </si>
+  <si>
+    <t>Heater</t>
+  </si>
+  <si>
+    <t>LED Buble</t>
+  </si>
+  <si>
+    <t>Electronic Water Heater</t>
+  </si>
+  <si>
+    <t>LED Tubes</t>
+  </si>
+  <si>
+    <t>Flusorescent Tubes</t>
   </si>
 </sst>
 </file>
@@ -366,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,6 +540,238 @@
         <v>300</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
